--- a/_resource/excel/1000-属性配置.xlsx
+++ b/_resource/excel/1000-属性配置.xlsx
@@ -17,11 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="160">
   <si>
     <t>#class</t>
   </si>
   <si>
+    <t>注释</t>
+  </si>
+  <si>
     <t>类名称</t>
   </si>
   <si>
@@ -31,15 +34,15 @@
     <t>类型</t>
   </si>
   <si>
-    <t>注释</t>
-  </si>
-  <si>
     <t>属性配置</t>
   </si>
   <si>
     <t>初始值</t>
   </si>
   <si>
+    <t>最大值</t>
+  </si>
+  <si>
     <t>属性的类名称</t>
   </si>
   <si>
@@ -97,7 +100,10 @@
     <t>删除回调</t>
   </si>
   <si>
-    <t>Class(string)</t>
+    <t>Comment(string)</t>
+  </si>
+  <si>
+    <t>Id(string)</t>
   </si>
   <si>
     <t>Name(string)</t>
@@ -106,15 +112,15 @@
     <t>Type(string)</t>
   </si>
   <si>
-    <t>Comment(string)</t>
-  </si>
-  <si>
     <t>Element(string)</t>
   </si>
   <si>
     <t>InitValue(string)</t>
   </si>
   <si>
+    <t>MaxValue(string)</t>
+  </si>
+  <si>
     <t>ContainClass(string)</t>
   </si>
   <si>
@@ -172,6 +178,9 @@
     <t>RemoveFunction(string)</t>
   </si>
   <si>
+    <t>基础属性</t>
+  </si>
+  <si>
     <t>Global</t>
   </si>
   <si>
@@ -181,46 +190,46 @@
     <t>object</t>
   </si>
   <si>
-    <t>基础属性</t>
-  </si>
-  <si>
     <t>BasicPlayer</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>玩家类属性</t>
+  </si>
+  <si>
     <t>player</t>
   </si>
   <si>
-    <t>玩家类属性</t>
-  </si>
-  <si>
     <t>Player</t>
   </si>
   <si>
+    <t>玩家id</t>
+  </si>
+  <si>
     <t>uint64</t>
   </si>
   <si>
-    <t>玩家id</t>
-  </si>
-  <si>
     <t>玩家基本属性</t>
   </si>
   <si>
+    <t>玩家账号(服务器使用)</t>
+  </si>
+  <si>
     <t>account</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>玩家账号(服务器使用)</t>
+    <t>玩家账号id(服务器使用)</t>
   </si>
   <si>
     <t>accountid</t>
   </si>
   <si>
-    <t>玩家账号id(服务器使用)</t>
+    <t>玩家渠道id(服务器使用)</t>
   </si>
   <si>
     <t>channel</t>
@@ -229,61 +238,61 @@
     <t>uint32</t>
   </si>
   <si>
-    <t>玩家渠道id(服务器使用)</t>
+    <t>玩家所在的gateid(服务器使用)</t>
   </si>
   <si>
     <t>gateid</t>
   </si>
   <si>
-    <t>玩家所在的gateid(服务器使用)</t>
+    <t>创建时间(服务器使用)</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>创建时间(服务器使用)</t>
+    <t>本次上线时间(服务器使用)</t>
   </si>
   <si>
     <t>onlinetime</t>
   </si>
   <si>
-    <t>本次上线时间(服务器使用)</t>
+    <t>上次下线时间(服务器使用)</t>
   </si>
   <si>
     <t>offlinetime</t>
   </si>
   <si>
-    <t>上次下线时间(服务器使用)</t>
+    <t>游戏内在线总时长(服务器使用，做一些成就和统计)</t>
   </si>
   <si>
     <t>totaltime</t>
   </si>
   <si>
-    <t>游戏内在线总时长(服务器使用，做一些成就和统计)</t>
+    <t>正在匹配的id</t>
   </si>
   <si>
     <t>matchid</t>
   </si>
   <si>
-    <t>正在匹配的id</t>
+    <t>匹配服务器的id( 服务器使用 )</t>
   </si>
   <si>
     <t>matchserverid</t>
   </si>
   <si>
-    <t>匹配服务器的id( 服务器使用 )</t>
+    <t>玩家所在的战场房间id</t>
   </si>
   <si>
     <t>roomid</t>
   </si>
   <si>
-    <t>玩家所在的战场房间id</t>
+    <t>房间服务器的id( 服务器使用 )</t>
   </si>
   <si>
     <t>roomserverid</t>
   </si>
   <si>
-    <t>房间服务器的id( 服务器使用 )</t>
+    <t>服务器记录id(服务器使用)</t>
   </si>
   <si>
     <t>note</t>
@@ -292,43 +301,40 @@
     <t>record</t>
   </si>
   <si>
-    <t>服务器记录id(服务器使用)</t>
-  </si>
-  <si>
     <t>KeyValue</t>
   </si>
   <si>
+    <t>玩家变量id</t>
+  </si>
+  <si>
     <t>variable</t>
   </si>
   <si>
-    <t>玩家变量id</t>
+    <t>充值订单号</t>
   </si>
   <si>
     <t>order</t>
   </si>
   <si>
-    <t>充值订单号</t>
+    <t>钻石</t>
   </si>
   <si>
     <t>diamond</t>
   </si>
   <si>
-    <t>钻石</t>
+    <t>游戏币</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>游戏币</t>
-  </si>
-  <si>
     <t>金币</t>
   </si>
   <si>
+    <t>英雄列表</t>
+  </si>
+  <si>
     <t>hero</t>
-  </si>
-  <si>
-    <t>英雄列表</t>
   </si>
   <si>
     <t>英雄</t>
@@ -369,22 +375,25 @@
     </r>
   </si>
   <si>
+    <t>玩家名字</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>玩家名字</t>
+    <t>玩家性别</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
-    <t>玩家性别</t>
+    <t>玩家状态</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>玩家状态</t>
+    <t>玩家状态时间</t>
   </si>
   <si>
     <r>
@@ -436,85 +445,85 @@
     </r>
   </si>
   <si>
-    <t>玩家状态时间</t>
+    <t>玩家所在服务器id</t>
   </si>
   <si>
     <t>serverid</t>
   </si>
   <si>
-    <t>玩家所在服务器id</t>
-  </si>
-  <si>
     <t>记录id</t>
   </si>
   <si>
+    <t>记录值</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
-    <t>记录值</t>
+    <t>是否随机( 添加配置使用 )</t>
   </si>
   <si>
     <t>rand</t>
   </si>
   <si>
-    <t>是否随机( 添加配置使用 )</t>
-  </si>
-  <si>
     <t>是否随机</t>
   </si>
   <si>
+    <t>种族</t>
+  </si>
+  <si>
     <t>race</t>
   </si>
   <si>
-    <t>种族</t>
+    <t>职业</t>
   </si>
   <si>
     <t>profession</t>
   </si>
   <si>
-    <t>职业</t>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
     <t>性别</t>
   </si>
   <si>
+    <t>身份(皇室, 贵族, 平面等 )</t>
+  </si>
+  <si>
     <t>identity</t>
   </si>
   <si>
-    <t>身份(皇室, 贵族, 平面等 )</t>
-  </si>
-  <si>
     <t>身份</t>
   </si>
   <si>
     <t>生日( 时间戳 )</t>
   </si>
   <si>
+    <t>年龄</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
-    <t>年龄</t>
+    <t>品质</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>品质</t>
+    <t>等级</t>
   </si>
   <si>
     <t>level</t>
   </si>
   <si>
-    <t>等级</t>
+    <t>武器</t>
   </si>
   <si>
     <t>weapon</t>
   </si>
   <si>
-    <t>武器</t>
+    <t>主动技能</t>
   </si>
   <si>
     <t>active</t>
@@ -523,43 +532,40 @@
     <t>array</t>
   </si>
   <si>
-    <t>主动技能</t>
+    <t>被动技能</t>
   </si>
   <si>
     <t>passivity</t>
   </si>
   <si>
-    <t>被动技能</t>
+    <t>天赋技能</t>
   </si>
   <si>
     <t>innate</t>
   </si>
   <si>
-    <t>天赋技能</t>
+    <t>力量</t>
   </si>
   <si>
     <t>str</t>
   </si>
   <si>
-    <t>力量</t>
+    <t>敏捷</t>
   </si>
   <si>
     <t>dex</t>
   </si>
   <si>
-    <t>敏捷</t>
+    <t>体质</t>
   </si>
   <si>
     <t>con</t>
   </si>
   <si>
-    <t>体质</t>
+    <t>智力</t>
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>智力</t>
   </si>
 </sst>
 </file>
@@ -605,22 +611,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -636,6 +626,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -643,16 +648,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,7 +670,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -678,16 +684,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -702,39 +714,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,6 +741,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,13 +819,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,25 +897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,61 +921,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,7 +951,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,49 +987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,24 +1024,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,6 +1058,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1066,35 +1101,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,10 +1127,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,133 +1139,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1714,43 +1720,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="13.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="48.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="48.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="17.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="25.875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="11" style="10" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="11" style="10" customWidth="1"/>
-    <col min="16" max="16" width="13" style="10" customWidth="1"/>
-    <col min="17" max="17" width="24.375" style="10" customWidth="1"/>
-    <col min="18" max="18" width="27.25" style="10" customWidth="1"/>
-    <col min="19" max="19" width="16.875" style="10" customWidth="1"/>
-    <col min="20" max="20" width="11" style="10" customWidth="1"/>
-    <col min="21" max="21" width="9" style="10" customWidth="1"/>
-    <col min="22" max="22" width="19.75" style="10" customWidth="1"/>
-    <col min="23" max="23" width="16.25" style="10" customWidth="1"/>
-    <col min="24" max="24" width="19.625" style="10" customWidth="1"/>
-    <col min="25" max="25" width="28.75" style="10" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="10"/>
+    <col min="6" max="7" width="19.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="25.875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11" style="10" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="10" customWidth="1"/>
+    <col min="16" max="16" width="11" style="10" customWidth="1"/>
+    <col min="17" max="17" width="13" style="10" customWidth="1"/>
+    <col min="18" max="18" width="24.375" style="10" customWidth="1"/>
+    <col min="19" max="19" width="27.25" style="10" customWidth="1"/>
+    <col min="20" max="20" width="16.875" style="10" customWidth="1"/>
+    <col min="21" max="21" width="11" style="10" customWidth="1"/>
+    <col min="22" max="22" width="9" style="10" customWidth="1"/>
+    <col min="23" max="23" width="19.75" style="10" customWidth="1"/>
+    <col min="24" max="24" width="16.25" style="10" customWidth="1"/>
+    <col min="25" max="25" width="19.625" style="10" customWidth="1"/>
+    <col min="26" max="26" width="28.75" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -1758,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:25">
+    <row r="2" s="2" customFormat="1" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1834,10 +1841,13 @@
       <c r="Y2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:25">
+      <c r="Z2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:26">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -1846,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -1911,1403 +1921,1406 @@
       <c r="Y3" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:25">
+      <c r="Z3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:21">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:22">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:22">
+      <c r="A7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="6">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
+        <v>1</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:22">
+      <c r="A8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5">
-        <v>1</v>
-      </c>
-      <c r="S5" s="5">
-        <v>1</v>
-      </c>
-      <c r="T5" s="5">
-        <v>1</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" spans="1:21">
-      <c r="A6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1</v>
-      </c>
-      <c r="R6" s="5">
-        <v>1</v>
-      </c>
-      <c r="S6" s="5">
-        <v>1</v>
-      </c>
-      <c r="T6" s="5">
-        <v>1</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" spans="1:21">
-      <c r="A7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1</v>
+      </c>
+      <c r="S8" s="6">
+        <v>1</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
-        <v>1</v>
-      </c>
-      <c r="S7" s="6">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" spans="1:21">
-      <c r="A8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" spans="1:22">
+      <c r="A12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0</v>
+      </c>
+      <c r="U15" s="6">
+        <v>0</v>
+      </c>
+      <c r="V15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0</v>
+      </c>
+      <c r="U18" s="6">
+        <v>0</v>
+      </c>
+      <c r="V18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0</v>
+      </c>
+      <c r="V19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="6" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0</v>
+      </c>
+      <c r="U20" s="6">
+        <v>0</v>
+      </c>
+      <c r="V20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="6" customFormat="1" ht="17" customHeight="1" spans="1:22">
+      <c r="A22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0</v>
+      </c>
+      <c r="T22" s="6">
+        <v>0</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="6" customFormat="1" ht="17" customHeight="1" spans="1:22">
+      <c r="A23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0</v>
+      </c>
+      <c r="V24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
+      <c r="A26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>1</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0</v>
+      </c>
+      <c r="V26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6">
-        <v>1</v>
-      </c>
-      <c r="S8" s="6">
-        <v>1</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="B27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7">
+        <v>1</v>
+      </c>
+      <c r="P27" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>1</v>
+      </c>
+      <c r="R27" s="7">
+        <v>1</v>
+      </c>
+      <c r="S27" s="7">
+        <v>1</v>
+      </c>
+      <c r="T27" s="7">
+        <v>1</v>
+      </c>
+      <c r="U27" s="7">
+        <v>1</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10" s="6">
-        <v>0</v>
-      </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" spans="1:21">
-      <c r="A12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7">
+        <v>1</v>
+      </c>
+      <c r="P28" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>1</v>
+      </c>
+      <c r="R28" s="7">
+        <v>1</v>
+      </c>
+      <c r="S28" s="7">
+        <v>1</v>
+      </c>
+      <c r="T28" s="7">
+        <v>1</v>
+      </c>
+      <c r="U28" s="7">
+        <v>1</v>
+      </c>
+      <c r="V28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
-        <v>0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:21">
-      <c r="A13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:21">
-      <c r="A14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:21">
-      <c r="A15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:21">
-      <c r="A16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>1</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17" s="6">
-        <v>0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
-        <v>0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
-        <v>0</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>0</v>
-      </c>
-      <c r="T20" s="6">
-        <v>0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:21">
-      <c r="A21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" s="6" customFormat="1" ht="17" customHeight="1" spans="1:21">
-      <c r="A22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
-      <c r="N22" s="6">
-        <v>1</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0</v>
-      </c>
-      <c r="T22" s="6">
-        <v>0</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="17" customHeight="1" spans="1:21">
-      <c r="A23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>1</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:21">
-      <c r="A24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1</v>
-      </c>
-      <c r="K24" s="6">
-        <v>1</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1</v>
-      </c>
-      <c r="N24" s="6">
-        <v>1</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
-        <v>0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:21">
-      <c r="A25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="6">
-        <v>1</v>
-      </c>
-      <c r="K25" s="6">
-        <v>1</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
-        <v>1</v>
-      </c>
-      <c r="N25" s="6">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
-      <c r="T25" s="6">
-        <v>0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" s="6" customFormat="1" ht="16.5" customHeight="1" spans="1:21">
-      <c r="A26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
-      <c r="K26" s="6">
-        <v>1</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>1</v>
-      </c>
-      <c r="N26" s="6">
-        <v>1</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="6">
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
-        <v>0</v>
-      </c>
-      <c r="T26" s="6">
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="7" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="7">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1</v>
-      </c>
-      <c r="O27" s="7">
-        <v>1</v>
-      </c>
-      <c r="P27" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>1</v>
-      </c>
-      <c r="R27" s="7">
-        <v>1</v>
-      </c>
-      <c r="S27" s="7">
-        <v>1</v>
-      </c>
-      <c r="T27" s="7">
-        <v>1</v>
-      </c>
-      <c r="U27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="7" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>1</v>
+      </c>
+      <c r="R29" s="7">
+        <v>1</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1</v>
+      </c>
+      <c r="T29" s="7">
+        <v>1</v>
+      </c>
+      <c r="U29" s="7">
+        <v>1</v>
+      </c>
+      <c r="V29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J28" s="7">
-        <v>1</v>
-      </c>
-      <c r="K28" s="7">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1</v>
-      </c>
-      <c r="O28" s="7">
-        <v>1</v>
-      </c>
-      <c r="P28" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>1</v>
-      </c>
-      <c r="R28" s="7">
-        <v>1</v>
-      </c>
-      <c r="S28" s="7">
-        <v>1</v>
-      </c>
-      <c r="T28" s="7">
-        <v>1</v>
-      </c>
-      <c r="U28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="7" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J29" s="7">
-        <v>1</v>
-      </c>
-      <c r="K29" s="7">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1</v>
-      </c>
-      <c r="O29" s="7">
-        <v>1</v>
-      </c>
-      <c r="P29" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>1</v>
-      </c>
-      <c r="R29" s="7">
-        <v>1</v>
-      </c>
-      <c r="S29" s="7">
-        <v>1</v>
-      </c>
-      <c r="T29" s="7">
-        <v>1</v>
-      </c>
-      <c r="U29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="7" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="C30" s="7" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="K30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="7">
         <v>0</v>
@@ -3316,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7">
         <v>1</v>
@@ -3337,27 +3350,27 @@
         <v>1</v>
       </c>
       <c r="U30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="7" customFormat="1" ht="15" customHeight="1" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A31" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="7">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="K31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="7">
         <v>0</v>
@@ -3366,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7">
         <v>1</v>
@@ -3387,27 +3400,27 @@
         <v>1</v>
       </c>
       <c r="U31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="7" customFormat="1" ht="15" customHeight="1" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="7" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A32" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="J32" s="7">
-        <v>1</v>
-      </c>
       <c r="K32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="7">
         <v>0</v>
@@ -3419,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="7">
         <v>1</v>
@@ -3437,36 +3450,36 @@
         <v>1</v>
       </c>
       <c r="U32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="8" customFormat="1" ht="15" customHeight="1" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="V32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="8" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A33" s="8" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="8">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="K33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="8">
         <v>0</v>
       </c>
       <c r="M33" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="8">
         <v>0</v>
@@ -3489,34 +3502,34 @@
       <c r="U33" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" s="8" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="8" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" s="8">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="K34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="8">
         <v>0</v>
       </c>
       <c r="M34" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="8">
         <v>0</v>
@@ -3539,25 +3552,25 @@
       <c r="U34" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A35" s="9" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K35" s="9">
         <v>0</v>
@@ -3592,37 +3605,37 @@
       <c r="U35" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A36" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" s="9">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="K36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="9">
         <v>0</v>
       </c>
       <c r="M36" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="9">
         <v>1</v>
       </c>
       <c r="O36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="9">
         <v>0</v>
@@ -3642,40 +3655,40 @@
       <c r="U36" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A37" s="9" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J37" s="9">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="K37" s="9">
         <v>1</v>
       </c>
       <c r="L37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="9">
         <v>1</v>
       </c>
       <c r="O37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="9">
         <v>0</v>
@@ -3695,40 +3708,40 @@
       <c r="U37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A38" s="9" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J38" s="9">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="K38" s="9">
         <v>1</v>
       </c>
       <c r="L38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="9">
         <v>1</v>
       </c>
       <c r="O38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="9">
         <v>0</v>
@@ -3748,40 +3761,40 @@
       <c r="U38" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A39" s="9" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J39" s="9">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="K39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
       </c>
       <c r="M39" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="9">
         <v>1</v>
       </c>
       <c r="O39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="9">
         <v>0</v>
@@ -3801,40 +3814,40 @@
       <c r="U39" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A40" s="9" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J40" s="9">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="K40" s="9">
         <v>1</v>
       </c>
       <c r="L40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="9">
         <v>1</v>
       </c>
       <c r="O40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="9">
         <v>0</v>
@@ -3854,40 +3867,40 @@
       <c r="U40" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A41" s="9" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J41" s="9">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="K41" s="9">
         <v>1</v>
       </c>
       <c r="L41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="9">
         <v>1</v>
       </c>
       <c r="O41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="9">
         <v>0</v>
@@ -3907,37 +3920,37 @@
       <c r="U41" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A42" s="9" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J42" s="9">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="K42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
       </c>
       <c r="M42" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="9">
         <v>1</v>
       </c>
       <c r="O42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="9">
         <v>0</v>
@@ -3957,40 +3970,40 @@
       <c r="U42" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A43" s="9" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J43" s="9">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="K43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="9">
         <v>0</v>
       </c>
       <c r="M43" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="9">
         <v>1</v>
       </c>
       <c r="O43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="9">
         <v>0</v>
@@ -4010,40 +4023,40 @@
       <c r="U43" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A44" s="9" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J44" s="9">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="K44" s="9">
         <v>1</v>
       </c>
       <c r="L44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="9">
         <v>1</v>
       </c>
       <c r="O44" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="9">
         <v>0</v>
@@ -4063,43 +4076,44 @@
       <c r="U44" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A45" s="9" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F45" s="9">
         <v>1</v>
       </c>
-      <c r="J45" s="9">
-        <v>1</v>
-      </c>
+      <c r="G45" s="9"/>
       <c r="K45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="9">
         <v>0</v>
       </c>
       <c r="M45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="9">
         <v>1</v>
       </c>
       <c r="O45" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="9">
         <v>0</v>
@@ -4119,40 +4133,40 @@
       <c r="U45" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A46" s="9" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46" s="9">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="K46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="9">
         <v>0</v>
       </c>
       <c r="M46" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="9">
         <v>1</v>
       </c>
       <c r="O46" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="9">
         <v>0</v>
@@ -4172,46 +4186,47 @@
       <c r="U46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A47" s="9" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9">
         <v>3</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J47" s="9">
-        <v>1</v>
+      <c r="H47" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="K47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="9">
         <v>0</v>
       </c>
       <c r="M47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="9">
         <v>1</v>
       </c>
       <c r="O47" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="9">
         <v>0</v>
@@ -4231,105 +4246,107 @@
       <c r="U47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A48" s="9" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>147</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9">
+        <v>3</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48" s="9">
+        <v>1</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9">
+        <v>1</v>
+      </c>
+      <c r="O48" s="9">
+        <v>1</v>
+      </c>
+      <c r="P48" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>0</v>
+      </c>
+      <c r="R48" s="9">
+        <v>0</v>
+      </c>
+      <c r="S48" s="9">
+        <v>0</v>
+      </c>
+      <c r="T48" s="9">
+        <v>0</v>
+      </c>
+      <c r="U48" s="9">
+        <v>0</v>
+      </c>
+      <c r="V48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
+      <c r="A49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="9">
+      <c r="E49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9">
         <v>3</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J48" s="9">
-        <v>1</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0</v>
-      </c>
-      <c r="L48" s="9">
-        <v>0</v>
-      </c>
-      <c r="M48" s="9">
-        <v>1</v>
-      </c>
-      <c r="N48" s="9">
-        <v>1</v>
-      </c>
-      <c r="O48" s="9">
-        <v>0</v>
-      </c>
-      <c r="P48" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="9">
-        <v>0</v>
-      </c>
-      <c r="R48" s="9">
-        <v>0</v>
-      </c>
-      <c r="S48" s="9">
-        <v>0</v>
-      </c>
-      <c r="T48" s="9">
-        <v>0</v>
-      </c>
-      <c r="U48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
-      <c r="A49" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F49" s="9">
-        <v>3</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J49" s="9">
-        <v>1</v>
+      <c r="H49" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="K49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="9">
         <v>0</v>
       </c>
       <c r="M49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="9">
         <v>1</v>
       </c>
       <c r="O49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="9">
         <v>0</v>
@@ -4349,40 +4366,40 @@
       <c r="U49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A50" s="9" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="J50" s="9">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="K50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="9">
         <v>0</v>
       </c>
       <c r="M50" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="9">
         <v>1</v>
       </c>
       <c r="O50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="9">
         <v>0</v>
@@ -4402,40 +4419,40 @@
       <c r="U50" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A51" s="9" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="J51" s="9">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="K51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="9">
         <v>0</v>
       </c>
       <c r="M51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="9">
         <v>1</v>
       </c>
       <c r="O51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="9">
         <v>0</v>
@@ -4455,40 +4472,40 @@
       <c r="U51" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A52" s="9" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="J52" s="9">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="K52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="9">
         <v>0</v>
       </c>
       <c r="M52" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="9">
         <v>1</v>
       </c>
       <c r="O52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="9">
         <v>0</v>
@@ -4508,40 +4525,40 @@
       <c r="U52" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" s="9" customFormat="1" ht="15" customHeight="1" spans="1:21">
+      <c r="V52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="9" customFormat="1" ht="15" customHeight="1" spans="1:22">
       <c r="A53" s="9" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="J53" s="9">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="K53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="9">
         <v>0</v>
       </c>
       <c r="M53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="9">
         <v>1</v>
       </c>
       <c r="O53" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="9">
         <v>0</v>
@@ -4559,6 +4576,9 @@
         <v>0</v>
       </c>
       <c r="U53" s="9">
+        <v>0</v>
+      </c>
+      <c r="V53" s="9">
         <v>0</v>
       </c>
     </row>
